--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H2">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I2">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J2">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>852.2811180140307</v>
+        <v>2123.782733832367</v>
       </c>
       <c r="R2">
-        <v>852.2811180140307</v>
+        <v>19114.0446044913</v>
       </c>
       <c r="S2">
-        <v>0.0006116226620575069</v>
+        <v>0.00132859645975152</v>
       </c>
       <c r="T2">
-        <v>0.0006116226620575069</v>
+        <v>0.001475164645298285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H3">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I3">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J3">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>954.5267287518949</v>
+        <v>2272.753428969656</v>
       </c>
       <c r="R3">
-        <v>954.5267287518949</v>
+        <v>20454.78086072691</v>
       </c>
       <c r="S3">
-        <v>0.0006849971992863824</v>
+        <v>0.001421789579279795</v>
       </c>
       <c r="T3">
-        <v>0.0006849971992863824</v>
+        <v>0.001578638649089383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H4">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I4">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J4">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>491.0781915261483</v>
+        <v>1141.22374568363</v>
       </c>
       <c r="R4">
-        <v>491.0781915261483</v>
+        <v>10271.01371115267</v>
       </c>
       <c r="S4">
-        <v>0.0003524125366985597</v>
+        <v>0.0007139269964605133</v>
       </c>
       <c r="T4">
-        <v>0.0003524125366985597</v>
+        <v>0.0007926860385428917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H5">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I5">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J5">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>584.2449557700008</v>
+        <v>1303.855633310417</v>
       </c>
       <c r="R5">
-        <v>584.2449557700008</v>
+        <v>11734.70069979375</v>
       </c>
       <c r="S5">
-        <v>0.0004192718195780042</v>
+        <v>0.000815666287726788</v>
       </c>
       <c r="T5">
-        <v>0.0004192718195780042</v>
+        <v>0.0009056490111687424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H6">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I6">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J6">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>1152.857965323674</v>
+        <v>2600.676833824287</v>
       </c>
       <c r="R6">
-        <v>1152.857965323674</v>
+        <v>15604.06100294572</v>
       </c>
       <c r="S6">
-        <v>0.0008273256825969699</v>
+        <v>0.001626931973470628</v>
       </c>
       <c r="T6">
-        <v>0.0008273256825969699</v>
+        <v>0.001204274636317133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H7">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J7">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>285871.3201854205</v>
+        <v>348043.4969322916</v>
       </c>
       <c r="R7">
-        <v>285871.3201854205</v>
+        <v>3132391.472390625</v>
       </c>
       <c r="S7">
-        <v>0.2051498902910371</v>
+        <v>0.2177291257234038</v>
       </c>
       <c r="T7">
-        <v>0.2051498902910371</v>
+        <v>0.2417485807383081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H8">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J8">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>320166.4454756615</v>
+        <v>372456.6729366262</v>
       </c>
       <c r="R8">
-        <v>320166.4454756615</v>
+        <v>3352110.056429636</v>
       </c>
       <c r="S8">
-        <v>0.2297611076256297</v>
+        <v>0.2330015256228607</v>
       </c>
       <c r="T8">
-        <v>0.2297611076256297</v>
+        <v>0.2587058021844268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H9">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J9">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>164716.978891861</v>
+        <v>187022.6633367337</v>
       </c>
       <c r="R9">
-        <v>164716.978891861</v>
+        <v>1683203.970030603</v>
       </c>
       <c r="S9">
-        <v>0.118205877129677</v>
+        <v>0.1169976779847469</v>
       </c>
       <c r="T9">
-        <v>0.118205877129677</v>
+        <v>0.1299046349840273</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H10">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J10">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>195966.8861452979</v>
+        <v>213674.6225887926</v>
       </c>
       <c r="R10">
-        <v>195966.8861452979</v>
+        <v>1923071.603299133</v>
       </c>
       <c r="S10">
-        <v>0.1406317540609111</v>
+        <v>0.1336706163901884</v>
       </c>
       <c r="T10">
-        <v>0.1406317540609111</v>
+        <v>0.1484168996287361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H11">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J11">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>386690.5197915354</v>
+        <v>426196.449013249</v>
       </c>
       <c r="R11">
-        <v>386690.5197915354</v>
+        <v>2557178.694079494</v>
       </c>
       <c r="S11">
-        <v>0.2775007918260679</v>
+        <v>0.2666200663077648</v>
       </c>
       <c r="T11">
-        <v>0.2775007918260679</v>
+        <v>0.1973553833985364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H12">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I12">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J12">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>7609.979776811853</v>
+        <v>210.2478611552685</v>
       </c>
       <c r="R12">
-        <v>7609.979776811853</v>
+        <v>1892.230750397416</v>
       </c>
       <c r="S12">
-        <v>0.005461151245663095</v>
+        <v>0.000131526902235032</v>
       </c>
       <c r="T12">
-        <v>0.005461151245663095</v>
+        <v>0.0001460366950842323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H13">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I13">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J13">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>8522.926237242664</v>
+        <v>224.9954949543767</v>
       </c>
       <c r="R13">
-        <v>8522.926237242664</v>
+        <v>2024.95945458939</v>
       </c>
       <c r="S13">
-        <v>0.006116309189025486</v>
+        <v>0.0001407527301613427</v>
       </c>
       <c r="T13">
-        <v>0.006116309189025486</v>
+        <v>0.0001562802984602675</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H14">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I14">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J14">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>4384.815089011281</v>
+        <v>112.9775884356191</v>
       </c>
       <c r="R14">
-        <v>4384.815089011281</v>
+        <v>1016.798295920572</v>
       </c>
       <c r="S14">
-        <v>0.003146675692663714</v>
+        <v>7.067654409072691E-05</v>
       </c>
       <c r="T14">
-        <v>0.003146675692663714</v>
+        <v>7.847344340658926E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H15">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I15">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J15">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>5216.696937360577</v>
+        <v>129.0776376470913</v>
       </c>
       <c r="R15">
-        <v>5216.696937360577</v>
+        <v>1161.698738823821</v>
       </c>
       <c r="S15">
-        <v>0.003743659222922259</v>
+        <v>8.07484163417966E-05</v>
       </c>
       <c r="T15">
-        <v>0.003743659222922259</v>
+        <v>8.965642507697366E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.563361</v>
+      </c>
+      <c r="I16">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J16">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>257.4588884056585</v>
+      </c>
+      <c r="R16">
+        <v>1544.753330433951</v>
+      </c>
+      <c r="S16">
+        <v>0.0001610611868239808</v>
+      </c>
+      <c r="T16">
+        <v>0.000119219429791824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.449807</v>
+      </c>
+      <c r="H17">
+        <v>4.349421</v>
+      </c>
+      <c r="I17">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J17">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>200.390997449864</v>
+      </c>
+      <c r="R17">
+        <v>1803.518977048776</v>
+      </c>
+      <c r="S17">
+        <v>0.0001253606433166246</v>
+      </c>
+      <c r="T17">
+        <v>0.0001391901864371363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.449807</v>
+      </c>
+      <c r="H18">
+        <v>4.349421</v>
+      </c>
+      <c r="I18">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J18">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>214.44723103431</v>
+      </c>
+      <c r="R18">
+        <v>1930.02507930879</v>
+      </c>
+      <c r="S18">
+        <v>0.0001341539449478306</v>
+      </c>
+      <c r="T18">
+        <v>0.0001489535480557762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.449807</v>
+      </c>
+      <c r="H19">
+        <v>4.349421</v>
+      </c>
+      <c r="I19">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J19">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>107.680960518188</v>
+      </c>
+      <c r="R19">
+        <v>969.1286446636921</v>
+      </c>
+      <c r="S19">
+        <v>6.736307845809997E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.479444266954353E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.449807</v>
+      </c>
+      <c r="H20">
+        <v>4.349421</v>
+      </c>
+      <c r="I20">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J20">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>123.026205424609</v>
+      </c>
+      <c r="R20">
+        <v>1107.235848821481</v>
+      </c>
+      <c r="S20">
+        <v>7.696276006955254E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.545314254443509E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.449807</v>
+      </c>
+      <c r="H21">
+        <v>4.349421</v>
+      </c>
+      <c r="I21">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J21">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>245.3886720485685</v>
+      </c>
+      <c r="R21">
+        <v>1472.332032291411</v>
+      </c>
+      <c r="S21">
+        <v>0.0001535102982773323</v>
+      </c>
+      <c r="T21">
+        <v>0.0001136301711708947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>64.854191</v>
+      </c>
+      <c r="H22">
+        <v>129.708382</v>
+      </c>
+      <c r="I22">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J22">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>8964.086960053299</v>
+      </c>
+      <c r="R22">
+        <v>53784.5217603198</v>
+      </c>
+      <c r="S22">
+        <v>0.005607755449890395</v>
+      </c>
+      <c r="T22">
+        <v>0.004150928105841971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.854191</v>
+      </c>
+      <c r="H23">
+        <v>129.708382</v>
+      </c>
+      <c r="I23">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J23">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>9592.864209457028</v>
+      </c>
+      <c r="R23">
+        <v>57557.18525674217</v>
+      </c>
+      <c r="S23">
+        <v>0.006001106056909706</v>
+      </c>
+      <c r="T23">
+        <v>0.00444209096141164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>61.49820118108</v>
-      </c>
-      <c r="H16">
-        <v>61.49820118108</v>
-      </c>
-      <c r="I16">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="J16">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>10293.81692990316</v>
-      </c>
-      <c r="R16">
-        <v>10293.81692990316</v>
-      </c>
-      <c r="S16">
-        <v>0.00738715381618528</v>
-      </c>
-      <c r="T16">
-        <v>0.00738715381618528</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>64.854191</v>
+      </c>
+      <c r="H24">
+        <v>129.708382</v>
+      </c>
+      <c r="I24">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J24">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>4816.89051060591</v>
+      </c>
+      <c r="R24">
+        <v>28901.34306363546</v>
+      </c>
+      <c r="S24">
+        <v>0.003013351402407079</v>
+      </c>
+      <c r="T24">
+        <v>0.002230518991207853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>64.854191</v>
+      </c>
+      <c r="H25">
+        <v>129.708382</v>
+      </c>
+      <c r="I25">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J25">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>5503.329080776151</v>
+      </c>
+      <c r="R25">
+        <v>33019.97448465691</v>
+      </c>
+      <c r="S25">
+        <v>0.003442773790882464</v>
+      </c>
+      <c r="T25">
+        <v>0.002548382613744229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>64.854191</v>
+      </c>
+      <c r="H26">
+        <v>129.708382</v>
+      </c>
+      <c r="I26">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J26">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>10976.96714547124</v>
+      </c>
+      <c r="R26">
+        <v>43907.86858188496</v>
+      </c>
+      <c r="S26">
+        <v>0.006866973469534275</v>
+      </c>
+      <c r="T26">
+        <v>0.003388677630645502</v>
       </c>
     </row>
   </sheetData>
